--- a/CRM/src/test/resources/testdata/CRMdta.xlsx
+++ b/CRM/src/test/resources/testdata/CRMdta.xlsx
@@ -9,16 +9,16 @@
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
     <sheet name="clienttestdata" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="projecttestdata" sheetId="4" r:id="rId3"/>
+    <sheet name="notesdata" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q30"/>
+  <oleSize ref="A1:Q33"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>username</t>
   </si>
@@ -72,6 +72,39 @@
   </si>
   <si>
     <t>india</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>enddate</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>obsqura</t>
+  </si>
+  <si>
+    <t>software training institute</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>veegaland</t>
+  </si>
+  <si>
+    <t>kidspark</t>
+  </si>
+  <si>
+    <t>wonderland</t>
   </si>
 </sst>
 </file>
@@ -116,9 +149,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,24 +571,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45038</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45282</v>
+      </c>
+      <c r="E2">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRM/src/test/resources/testdata/CRMdta.xlsx
+++ b/CRM/src/test/resources/testdata/CRMdta.xlsx
@@ -13,7 +13,6 @@
     <sheet name="notesdata" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q33"/>
 </workbook>
 </file>
 

--- a/CRM/src/test/resources/testdata/CRMdta.xlsx
+++ b/CRM/src/test/resources/testdata/CRMdta.xlsx
@@ -4,13 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="10092" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="10092"/>
   </bookViews>
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
-    <sheet name="clienttestdata" sheetId="2" r:id="rId2"/>
-    <sheet name="projecttestdata" sheetId="4" r:id="rId3"/>
-    <sheet name="notesdata" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -457,18 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,12 +475,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>695005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>12345678</v>
+      </c>
+      <c r="H6">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45038</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45282</v>
+      </c>
+      <c r="E9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -490,173 +603,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>695005</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>12345678</v>
-      </c>
-      <c r="H2">
-        <v>123</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45038</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45282</v>
-      </c>
-      <c r="E2">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>